--- a/Documents/YRT_QA_documentation.xlsx
+++ b/Documents/YRT_QA_documentation.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - ПГКПИ - Бургас\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimityr\Desktop\YRT\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE598980-E6E2-4469-874B-11360F49500F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Game" sheetId="1" r:id="rId1"/>
+    <sheet name="Application" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -188,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,6 +566,33 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,10 +605,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,6 +668,12 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,6 +686,27 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,75 +717,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,10 +1021,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C81" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -1035,1427 +1036,1585 @@
   <sheetData>
     <row r="1" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="44"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="3:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="34" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="37" t="s">
+      <c r="I8" s="52"/>
+      <c r="J8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="34" t="s">
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="55" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="34" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="36">
+      <c r="I9" s="52"/>
+      <c r="J9" s="57">
         <v>45296</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="38"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="55"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="34" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="37" t="s">
+      <c r="I10" s="52"/>
+      <c r="J10" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="38"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="55"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="37" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="38"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="55"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="8" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="11" t="s">
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="8" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="26">
+      <c r="I16" s="18"/>
+      <c r="J16" s="35">
         <v>45298</v>
       </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="15"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="12"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="27" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="52" t="s">
+      <c r="I17" s="39"/>
+      <c r="J17" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="15"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="13"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="16"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="25"/>
     </row>
     <row r="19" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="51"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="34" t="s">
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="37" t="s">
+      <c r="I22" s="52"/>
+      <c r="J22" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="34" t="s">
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="38" t="s">
+      <c r="N22" s="55" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="34" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="36">
+      <c r="I23" s="52"/>
+      <c r="J23" s="57">
         <v>45288</v>
       </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="38"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="55"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="34" t="s">
+      <c r="C24" s="52"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="37" t="s">
+      <c r="I24" s="52"/>
+      <c r="J24" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="38"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="55"/>
     </row>
     <row r="25" spans="3:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="37" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="38"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="55"/>
     </row>
     <row r="26" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="4"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="13"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8" t="s">
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10" t="s">
+      <c r="I29" s="18"/>
+      <c r="J29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="11" t="s">
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="14" t="s">
+      <c r="N29" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="8" t="s">
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="26">
+      <c r="I30" s="18"/>
+      <c r="J30" s="35">
         <v>45284</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="15"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="24"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="12"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="27" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="10" t="s">
+      <c r="I31" s="39"/>
+      <c r="J31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="15"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="24"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="13"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="10" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="16"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="25"/>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="4"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="13"/>
     </row>
     <row r="36" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8" t="s">
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10" t="s">
+      <c r="I36" s="18"/>
+      <c r="J36" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="11" t="s">
+      <c r="K36" s="53"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="N36" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="8" t="s">
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="26">
+      <c r="I37" s="18"/>
+      <c r="J37" s="35">
         <v>45286</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="15"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="24"/>
     </row>
     <row r="38" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="12"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="27" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="10" t="s">
+      <c r="I38" s="39"/>
+      <c r="J38" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="15"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="24"/>
     </row>
     <row r="39" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="13"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="10" t="s">
+      <c r="C39" s="22"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="16"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="25"/>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="4"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="13"/>
     </row>
     <row r="43" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8" t="s">
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10" t="s">
+      <c r="I43" s="18"/>
+      <c r="J43" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="11" t="s">
+      <c r="K43" s="53"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="14" t="s">
+      <c r="N43" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="8" t="s">
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="26">
+      <c r="I44" s="18"/>
+      <c r="J44" s="35">
         <v>45287</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="15"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="24"/>
     </row>
     <row r="45" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="12"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="27" t="s">
+      <c r="C45" s="21"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="28"/>
-      <c r="J45" s="10" t="s">
+      <c r="I45" s="39"/>
+      <c r="J45" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="15"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="24"/>
     </row>
     <row r="46" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="13"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="10" t="s">
+      <c r="C46" s="22"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="16"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="25"/>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="4"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="13"/>
     </row>
     <row r="50" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="8" t="s">
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10" t="s">
+      <c r="I50" s="18"/>
+      <c r="J50" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="11" t="s">
+      <c r="K50" s="53"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N50" s="14" t="s">
+      <c r="N50" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="8" t="s">
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="26">
+      <c r="I51" s="18"/>
+      <c r="J51" s="35">
         <v>45283</v>
       </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="15"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="24"/>
     </row>
     <row r="52" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="12"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="27" t="s">
+      <c r="C52" s="21"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="28"/>
-      <c r="J52" s="10" t="s">
+      <c r="I52" s="39"/>
+      <c r="J52" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K52" s="6"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="15"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="24"/>
     </row>
     <row r="53" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="13"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="10" t="s">
+      <c r="C53" s="22"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="6"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="16"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="25"/>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="4"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="13"/>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="8" t="s">
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I57" s="9"/>
-      <c r="J57" s="10" t="s">
+      <c r="I57" s="18"/>
+      <c r="J57" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K57" s="6"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="11" t="s">
+      <c r="K57" s="53"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="14" t="s">
+      <c r="N57" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="8" t="s">
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="9"/>
-      <c r="J58" s="26">
+      <c r="I58" s="18"/>
+      <c r="J58" s="35">
         <v>45280</v>
       </c>
-      <c r="K58" s="6"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="15"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="24"/>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C59" s="12"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="27" t="s">
+      <c r="C59" s="21"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="28"/>
-      <c r="J59" s="10" t="s">
+      <c r="I59" s="39"/>
+      <c r="J59" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K59" s="6"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="15"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="24"/>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C60" s="13"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="10" t="s">
+      <c r="C60" s="22"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K60" s="6"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="16"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="25"/>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="4"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="13"/>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="8" t="s">
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I64" s="9"/>
-      <c r="J64" s="5" t="s">
+      <c r="I64" s="18"/>
+      <c r="J64" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K64" s="6"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="11" t="s">
+      <c r="K64" s="53"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N64" s="14" t="s">
+      <c r="N64" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="8" t="s">
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I65" s="9"/>
-      <c r="J65" s="26">
+      <c r="I65" s="18"/>
+      <c r="J65" s="35">
         <v>45278</v>
       </c>
-      <c r="K65" s="6"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="15"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="24"/>
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C66" s="12"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="27" t="s">
+      <c r="C66" s="21"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I66" s="28"/>
-      <c r="J66" s="10" t="s">
+      <c r="I66" s="39"/>
+      <c r="J66" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K66" s="6"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="15"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="24"/>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C67" s="13"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="10" t="s">
+      <c r="C67" s="22"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K67" s="6"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="16"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="25"/>
     </row>
     <row r="70" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="4"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="13"/>
     </row>
     <row r="71" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="8" t="s">
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="10" t="s">
+      <c r="I71" s="18"/>
+      <c r="J71" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K71" s="6"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="11" t="s">
+      <c r="K71" s="53"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N71" s="14" t="s">
+      <c r="N71" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="8" t="s">
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="9"/>
-      <c r="J72" s="26">
+      <c r="I72" s="18"/>
+      <c r="J72" s="35">
         <v>45232</v>
       </c>
-      <c r="K72" s="6"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="15"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="24"/>
     </row>
     <row r="73" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C73" s="12"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="27" t="s">
+      <c r="C73" s="21"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I73" s="28"/>
-      <c r="J73" s="10" t="s">
+      <c r="I73" s="39"/>
+      <c r="J73" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K73" s="6"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="15"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="24"/>
     </row>
     <row r="74" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C74" s="13"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="10" t="s">
+      <c r="C74" s="22"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K74" s="6"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="16"/>
+      <c r="K74" s="53"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="25"/>
     </row>
     <row r="77" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="4"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="13"/>
     </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="8" t="s">
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="10" t="s">
+      <c r="I78" s="18"/>
+      <c r="J78" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K78" s="6"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="11" t="s">
+      <c r="K78" s="53"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N78" s="14" t="s">
+      <c r="N78" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="8" t="s">
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="9"/>
-      <c r="J79" s="26">
+      <c r="I79" s="18"/>
+      <c r="J79" s="35">
         <v>45279</v>
       </c>
-      <c r="K79" s="6"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="15"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="24"/>
     </row>
     <row r="80" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C80" s="12"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="27" t="s">
+      <c r="C80" s="21"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I80" s="28"/>
-      <c r="J80" s="10" t="s">
+      <c r="I80" s="39"/>
+      <c r="J80" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K80" s="6"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="15"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="24"/>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C81" s="13"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="10" t="s">
+      <c r="C81" s="22"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="6"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="16"/>
+      <c r="K81" s="53"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="25"/>
     </row>
     <row r="84" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="4"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="13"/>
     </row>
     <row r="85" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="8" t="s">
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I85" s="9"/>
-      <c r="J85" s="10" t="s">
+      <c r="I85" s="18"/>
+      <c r="J85" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K85" s="6"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="11" t="s">
+      <c r="K85" s="53"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N85" s="14" t="s">
+      <c r="N85" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="8" t="s">
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I86" s="9"/>
-      <c r="J86" s="26">
+      <c r="I86" s="18"/>
+      <c r="J86" s="35">
         <v>45280</v>
       </c>
-      <c r="K86" s="6"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="15"/>
+      <c r="K86" s="53"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="24"/>
     </row>
     <row r="87" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C87" s="12"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="27" t="s">
+      <c r="C87" s="21"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I87" s="28"/>
-      <c r="J87" s="10" t="s">
+      <c r="I87" s="39"/>
+      <c r="J87" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K87" s="6"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="15"/>
+      <c r="K87" s="53"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="24"/>
     </row>
     <row r="88" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C88" s="13"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="10" t="s">
+      <c r="C88" s="22"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K88" s="6"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="16"/>
+      <c r="K88" s="53"/>
+      <c r="L88" s="54"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="25"/>
     </row>
     <row r="91" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="4"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="13"/>
     </row>
     <row r="92" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="8" t="s">
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I92" s="9"/>
-      <c r="J92" s="10" t="s">
+      <c r="I92" s="18"/>
+      <c r="J92" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K92" s="6"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="11" t="s">
+      <c r="K92" s="53"/>
+      <c r="L92" s="54"/>
+      <c r="M92" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N92" s="14" t="s">
+      <c r="N92" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="17" t="s">
+      <c r="D93" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="8" t="s">
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I93" s="9"/>
-      <c r="J93" s="26">
+      <c r="I93" s="18"/>
+      <c r="J93" s="35">
         <v>45281</v>
       </c>
-      <c r="K93" s="6"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="15"/>
+      <c r="K93" s="53"/>
+      <c r="L93" s="54"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="24"/>
     </row>
     <row r="94" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C94" s="12"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="27" t="s">
+      <c r="C94" s="21"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="28"/>
-      <c r="J94" s="10" t="s">
+      <c r="I94" s="39"/>
+      <c r="J94" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K94" s="6"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="15"/>
+      <c r="K94" s="53"/>
+      <c r="L94" s="54"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="24"/>
     </row>
     <row r="95" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C95" s="13"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="10" t="s">
+      <c r="C95" s="22"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K95" s="6"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="16"/>
+      <c r="K95" s="53"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="25"/>
     </row>
     <row r="98" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="4"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="13"/>
     </row>
     <row r="99" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="8" t="s">
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I99" s="9"/>
-      <c r="J99" s="10" t="s">
+      <c r="I99" s="18"/>
+      <c r="J99" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K99" s="6"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="11" t="s">
+      <c r="K99" s="53"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N99" s="14" t="s">
+      <c r="N99" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="100" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="8" t="s">
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="9"/>
-      <c r="J100" s="26">
+      <c r="I100" s="18"/>
+      <c r="J100" s="35">
         <v>45231</v>
       </c>
-      <c r="K100" s="6"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="15"/>
+      <c r="K100" s="53"/>
+      <c r="L100" s="54"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="24"/>
     </row>
     <row r="101" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C101" s="12"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="27" t="s">
+      <c r="C101" s="21"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="28"/>
-      <c r="J101" s="10" t="s">
+      <c r="I101" s="39"/>
+      <c r="J101" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K101" s="6"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="15"/>
+      <c r="K101" s="53"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="24"/>
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="13"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="30"/>
-      <c r="J102" s="10" t="s">
+      <c r="C102" s="22"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K102" s="6"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="16"/>
+      <c r="K102" s="53"/>
+      <c r="L102" s="54"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="25"/>
     </row>
     <row r="105" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="182">
+    <mergeCell ref="C98:N98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="M99:M102"/>
+    <mergeCell ref="N99:N102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:G102"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="H101:I102"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="C91:N91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="M92:M95"/>
+    <mergeCell ref="N92:N95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:G95"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="H94:I95"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="C84:N84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="N85:N88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:G88"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="H87:I88"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="C77:N77"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:G81"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="H80:I81"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="C70:N70"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:G74"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="H73:I74"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="C63:N63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="M64:M67"/>
+    <mergeCell ref="N64:N67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:G67"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="H66:I67"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="C56:N56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:G60"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="C49:N49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:G53"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="H52:I53"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:G46"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C35:N35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:G39"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:G25"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:M32"/>
+    <mergeCell ref="N29:N32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:G32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
     <mergeCell ref="C2:N4"/>
     <mergeCell ref="C14:N14"/>
     <mergeCell ref="D15:G15"/>
@@ -2472,19 +2631,6 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="C7:N7"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:M32"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:G32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:M11"/>
     <mergeCell ref="N8:N11"/>
@@ -2493,151 +2639,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C21:N21"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:G25"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="C35:N35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:G39"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:G46"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C49:N49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:G53"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="H52:I53"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="C56:N56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:G60"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="C63:N63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="M64:M67"/>
-    <mergeCell ref="N64:N67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:G67"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="H66:I67"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="C70:N70"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:G74"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="H73:I74"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="C77:N77"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:G81"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="H80:I81"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="C84:N84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:M88"/>
-    <mergeCell ref="N85:N88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:G88"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="H87:I88"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="C91:N91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="M92:M95"/>
-    <mergeCell ref="N92:N95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:G95"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="H94:I95"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="C98:N98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="M99:M102"/>
-    <mergeCell ref="N99:N102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:G102"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="H101:I102"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="J102:L102"/>
   </mergeCells>
   <conditionalFormatting sqref="N15:N18">
     <cfRule type="colorScale" priority="12">
